--- a/marks_data.xlsx
+++ b/marks_data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\excel-word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C579946A-9F26-410E-9002-2EBBB03697AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF26254-83D2-45CC-8F69-539933F08DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2B433D70-B3D7-4E60-BEB8-9D7B39E1AE55}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Marks" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,40 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>CSE514001</t>
-  </si>
-  <si>
-    <t>CSE514002</t>
-  </si>
-  <si>
-    <t>CSE514003</t>
-  </si>
-  <si>
-    <t>CSE514004</t>
-  </si>
-  <si>
-    <t>CSE514005</t>
-  </si>
-  <si>
-    <t>CSE514006</t>
-  </si>
-  <si>
-    <t>CSE514007</t>
-  </si>
-  <si>
-    <t>CSE514008</t>
-  </si>
-  <si>
-    <t>CSE514009</t>
-  </si>
-  <si>
-    <t>CSE514010</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>cse_501</t>
   </si>
@@ -79,13 +46,43 @@
   </si>
   <si>
     <t>cse_502</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>CS0514019</t>
+  </si>
+  <si>
+    <t>CS0514020</t>
+  </si>
+  <si>
+    <t>CS0514021</t>
+  </si>
+  <si>
+    <t>CS0514022</t>
+  </si>
+  <si>
+    <t>CS0514023</t>
+  </si>
+  <si>
+    <t>CS0514024</t>
+  </si>
+  <si>
+    <t>CS0514025</t>
+  </si>
+  <si>
+    <t>CS0514026</t>
+  </si>
+  <si>
+    <t>CS0514027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +96,12 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,10 +130,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,320 +455,321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065795BD-53D2-4B89-AEC2-B80B86DB1A15}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3">
+        <v>59</v>
+      </c>
+      <c r="G2" s="3">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>70</v>
+      </c>
+      <c r="C3" s="3">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3">
+        <v>58</v>
+      </c>
+      <c r="F3" s="3">
+        <v>58</v>
+      </c>
+      <c r="G3" s="3">
+        <v>58</v>
+      </c>
+      <c r="H3" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3">
+        <v>47</v>
+      </c>
+      <c r="G4" s="3">
+        <v>56</v>
+      </c>
+      <c r="H4" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="3">
+        <v>59</v>
+      </c>
+      <c r="C5" s="3">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3">
+        <v>59</v>
+      </c>
+      <c r="E5" s="3">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3">
+        <v>59</v>
+      </c>
+      <c r="G5" s="3">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B6" s="3">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3">
+        <v>55</v>
+      </c>
+      <c r="G6" s="3">
+        <v>80</v>
+      </c>
+      <c r="H6" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3">
+        <v>75</v>
+      </c>
+      <c r="E7" s="3">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3">
+        <v>65</v>
+      </c>
+      <c r="G7" s="3">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3">
+        <v>57</v>
+      </c>
+      <c r="F8" s="3">
+        <v>57</v>
+      </c>
+      <c r="G8" s="3">
+        <v>57</v>
+      </c>
+      <c r="H8" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3">
+        <v>62</v>
+      </c>
+      <c r="G9" s="3">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3">
+        <v>57</v>
+      </c>
+      <c r="G10" s="3">
+        <v>58</v>
+      </c>
+      <c r="H10" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2">
-        <v>59</v>
-      </c>
-      <c r="F2" s="2">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2">
-        <v>59</v>
-      </c>
-      <c r="H2" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2">
-        <v>58</v>
-      </c>
-      <c r="F3" s="2">
-        <v>58</v>
-      </c>
-      <c r="G3" s="2">
-        <v>58</v>
-      </c>
-      <c r="H3" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>76</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2">
-        <v>55</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B11" s="3">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3">
         <v>60</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E11" s="3">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3">
+        <v>66</v>
+      </c>
+      <c r="G11" s="3">
+        <v>65</v>
+      </c>
+      <c r="H11" s="3">
         <v>47</v>
       </c>
-      <c r="G4" s="2">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>59</v>
-      </c>
-      <c r="C5" s="2">
-        <v>59</v>
-      </c>
-      <c r="D5" s="2">
-        <v>59</v>
-      </c>
-      <c r="E5" s="2">
-        <v>59</v>
-      </c>
-      <c r="F5" s="2">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2">
-        <v>59</v>
-      </c>
-      <c r="H5" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>78</v>
-      </c>
-      <c r="C6" s="2">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2">
-        <v>65</v>
-      </c>
-      <c r="F6" s="2">
-        <v>55</v>
-      </c>
-      <c r="G6" s="2">
-        <v>80</v>
-      </c>
-      <c r="H6" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>67</v>
-      </c>
-      <c r="C7" s="2">
-        <v>55</v>
-      </c>
-      <c r="D7" s="2">
-        <v>75</v>
-      </c>
-      <c r="E7" s="2">
-        <v>75</v>
-      </c>
-      <c r="F7" s="2">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2">
-        <v>57</v>
-      </c>
-      <c r="D8" s="2">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2">
-        <v>57</v>
-      </c>
-      <c r="F8" s="2">
-        <v>57</v>
-      </c>
-      <c r="G8" s="2">
-        <v>57</v>
-      </c>
-      <c r="H8" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>60</v>
-      </c>
-      <c r="C9" s="2">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2">
-        <v>56</v>
-      </c>
-      <c r="E9" s="2">
-        <v>58</v>
-      </c>
-      <c r="F9" s="2">
-        <v>62</v>
-      </c>
-      <c r="G9" s="2">
-        <v>60</v>
-      </c>
-      <c r="H9" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2">
-        <v>73</v>
-      </c>
-      <c r="E10" s="2">
-        <v>73</v>
-      </c>
-      <c r="F10" s="2">
-        <v>57</v>
-      </c>
-      <c r="G10" s="2">
-        <v>58</v>
-      </c>
-      <c r="H10" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>73</v>
-      </c>
-      <c r="C11" s="2">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2">
-        <v>64</v>
-      </c>
-      <c r="F11" s="2">
-        <v>66</v>
-      </c>
-      <c r="G11" s="2">
-        <v>65</v>
-      </c>
-      <c r="H11" s="2">
-        <v>47</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
